--- a/DATA/Graph for Shader Draw Call.xlsx
+++ b/DATA/Graph for Shader Draw Call.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding Projects\Computer-Graphics-LAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding Projects\Computer-Graphics-LAB\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F802C3-36FD-4CCA-AE29-EFB0FA91E389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573A2847-338C-457C-808A-1F177F987A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{774354F7-C6A8-49BE-BF20-B829A803F394}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Shader</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Duration (µs)</t>
+  </si>
+  <si>
+    <t>Vertex Shader Compile Time (ms)</t>
+  </si>
+  <si>
+    <t>Fragment Shader Compile Time (µs)</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,26 +197,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -219,10 +267,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -257,31 +317,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Draw Call Duration and GPU Utilization by Shader Type</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -313,17 +348,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.5753928586612521E-2"/>
-          <c:y val="0.12838672436894971"/>
-          <c:w val="0.89743159747974011"/>
-          <c:h val="0.81930826377169819"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -415,9 +440,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Duration (µs)</c:v>
                 </c:pt>
@@ -432,16 +457,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>SM FMA (%)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vertex Shader Compile Time (ms)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Fragment Shader Compile Time (µs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -456,13 +487,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71DF-43ED-9AFE-70DF2D1A4C57}"/>
+              <c16:uniqueId val="{00000000-735F-43B7-92AF-9207744978C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -553,9 +590,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Duration (µs)</c:v>
                 </c:pt>
@@ -570,16 +607,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>SM FMA (%)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vertex Shader Compile Time (ms)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Fragment Shader Compile Time (µs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -594,13 +637,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-71DF-43ED-9AFE-70DF2D1A4C57}"/>
+              <c16:uniqueId val="{00000001-735F-43B7-92AF-9207744978C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -691,9 +740,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Duration (µs)</c:v>
                 </c:pt>
@@ -708,16 +757,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>SM FMA (%)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vertex Shader Compile Time (ms)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Fragment Shader Compile Time (µs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -732,13 +787,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-71DF-43ED-9AFE-70DF2D1A4C57}"/>
+              <c16:uniqueId val="{00000002-735F-43B7-92AF-9207744978C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -752,11 +813,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="298844639"/>
-        <c:axId val="298845119"/>
+        <c:axId val="434309744"/>
+        <c:axId val="434308304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298844639"/>
+        <c:axId val="434309744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298845119"/>
+        <c:crossAx val="434308304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -807,7 +868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298845119"/>
+        <c:axId val="434308304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298844639"/>
+        <c:crossAx val="434309744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -884,16 +945,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.65037931016886019"/>
-          <c:y val="8.103352583909415E-2"/>
-          <c:w val="0.32659059710860833"/>
-          <c:h val="3.38687715873634E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1596,22 +1647,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:colOff>149224</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC6865E-37EF-812E-3876-7AEC625C7E44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D111A6B3-80E1-C587-72FF-044D9BCD3098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C5DC1B-11A2-474C-AC5E-21496412F939}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1943,86 +1994,112 @@
     <col min="4" max="4" width="7.453125" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" customWidth="1"/>
     <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="36.54296875" customWidth="1"/>
+    <col min="8" max="8" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>30</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>44.2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>43.6</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>27.4</v>
       </c>
+      <c r="G2" s="8">
+        <v>2.4072</v>
+      </c>
+      <c r="H2" s="4">
+        <v>29.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>50</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4.7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>46.7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>45.9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>33.799999999999997</v>
       </c>
+      <c r="G3" s="8">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>11.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>60</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>4.5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>50.6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>49.2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>35.200000000000003</v>
+      </c>
+      <c r="G4" s="13">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>16.600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/Graph for Shader Draw Call.xlsx
+++ b/DATA/Graph for Shader Draw Call.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding Projects\Computer-Graphics-LAB\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573A2847-338C-457C-808A-1F177F987A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002B975-03FE-499A-9031-1DDC95AF1915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{774354F7-C6A8-49BE-BF20-B829A803F394}"/>
   </bookViews>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -267,22 +267,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -317,6 +308,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Draw Call Duration and GPU Utilization by Shader Type</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1983,7 +2000,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1999,28 +2016,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2043,7 +2060,7 @@
       <c r="F2" s="2">
         <v>27.4</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="2">
         <v>2.4072</v>
       </c>
       <c r="H2" s="4">
@@ -2069,7 +2086,7 @@
       <c r="F3" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="2">
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="H3" s="4">
@@ -2095,7 +2112,7 @@
       <c r="F4" s="6">
         <v>35.200000000000003</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="6">
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="H4" s="7">
